--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.011520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.011520.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2445,12 +2445,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3373,12 +3373,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5053,12 +5053,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6019,12 +6019,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6355,12 +6355,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6481,12 +6481,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6523,12 +6523,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7447,12 +7447,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7489,12 +7489,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7573,12 +7573,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8077,12 +8077,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8119,12 +8119,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8245,12 +8245,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8371,12 +8371,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8539,12 +8539,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8749,12 +8749,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9173,12 +9173,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9257,12 +9257,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9383,12 +9383,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9635,12 +9635,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9761,12 +9761,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10059,12 +10059,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10269,12 +10269,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10311,12 +10311,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10521,12 +10521,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10647,12 +10647,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10773,12 +10773,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10857,12 +10857,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10899,12 +10899,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11067,12 +11067,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11613,12 +11613,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12079,12 +12079,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12121,12 +12121,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13045,12 +13045,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13591,12 +13591,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14263,12 +14263,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14683,12 +14683,12 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14725,12 +14725,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14767,12 +14767,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14809,12 +14809,12 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15187,12 +15187,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15657,12 +15657,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15867,12 +15867,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16035,12 +16035,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16371,12 +16371,12 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16501,12 +16501,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16543,12 +16543,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16795,12 +16795,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17891,12 +17891,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18651,12 +18651,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18735,12 +18735,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19033,12 +19033,12 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19499,12 +19499,12 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19541,12 +19541,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19755,12 +19755,12 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19797,12 +19797,12 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19969,12 +19969,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20011,12 +20011,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20347,12 +20347,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20683,12 +20683,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21061,12 +21061,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21145,12 +21145,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21313,12 +21313,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21481,12 +21481,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21649,12 +21649,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
